--- a/ItemInfo.xlsx
+++ b/ItemInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All\CharacterInfo-API\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DDAF4B-4A05-43C5-915B-96FABC8E39C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36CC54-1669-48C1-AD07-479A956C5637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2F9B53AD-7E61-44DD-9916-48CFEB9CA661}"/>
   </bookViews>
@@ -13703,8 +13703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A503B8AB-B684-46C0-8D4E-682EFE5F0A51}">
   <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.8984375" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ItemInfo.xlsx
+++ b/ItemInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edswq\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All\CharacterInfo-API\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56874BF-FB01-4189-B864-A5163D6D2FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C743161-4353-4FD0-B5E7-2E60E8D15C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2F9B53AD-7E61-44DD-9916-48CFEB9CA661}"/>
   </bookViews>
@@ -13529,8 +13529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A503B8AB-B684-46C0-8D4E-682EFE5F0A51}">
   <dimension ref="A1:AE106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.8984375" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ItemInfo.xlsx
+++ b/ItemInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All\CharacterInfo-API\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C743161-4353-4FD0-B5E7-2E60E8D15C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD5A365-93BD-4457-846A-952B7B7AFE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2F9B53AD-7E61-44DD-9916-48CFEB9CA661}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="478">
   <si>
     <t>ItemName</t>
   </si>
@@ -1478,6 +1478,9 @@
   </si>
   <si>
     <t>Adaptive_Attack%</t>
+  </si>
+  <si>
+    <t>2120</t>
   </si>
 </sst>
 </file>
@@ -13530,7 +13533,7 @@
   <dimension ref="A1:AE106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.8984375" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13648,11 +13651,11 @@
       <c r="D2" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="1">
-        <v>2120</v>
-      </c>
-      <c r="F2" s="1">
-        <v>40</v>
+      <c r="E2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -23623,7 +23626,7 @@
   <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.19921875" defaultRowHeight="31.95" customHeight="1" x14ac:dyDescent="0.25"/>
